--- a/Data Library.xlsx
+++ b/Data Library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shairra\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\PersonalDataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7647578-9A27-4B44-9BC4-16062D651947}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6916DFA2-4190-48F4-BD75-DABF5CE8EA5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7950" xr2:uid="{676481CE-0EF8-428F-AA1A-EFB24E0787AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{676481CE-0EF8-428F-AA1A-EFB24E0787AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="147">
   <si>
     <t>Surname</t>
   </si>
@@ -424,6 +424,54 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>necessary</t>
+  </si>
+  <si>
+    <t>necessary and unique</t>
+  </si>
+  <si>
+    <t>necessary and unique (primary key)</t>
+  </si>
+  <si>
+    <t>if applicable</t>
+  </si>
+  <si>
+    <t>necesarry if dual citizenship</t>
+  </si>
+  <si>
+    <t>necessary (residential address)</t>
+  </si>
+  <si>
+    <t>necessary (permanent address)</t>
+  </si>
+  <si>
+    <t>spouse information (only if applicable)</t>
+  </si>
+  <si>
+    <t>children name (if applicable)</t>
+  </si>
+  <si>
+    <t>birth date of child (if applicable)</t>
+  </si>
+  <si>
+    <t>parents' information (if applicable)</t>
+  </si>
+  <si>
+    <t>Elementary Education Information</t>
+  </si>
+  <si>
+    <t>Secondary Education Information</t>
+  </si>
+  <si>
+    <t>Vocational Education Information</t>
+  </si>
+  <si>
+    <t>Tertiary Education Information</t>
+  </si>
+  <si>
+    <t>Graduate studies information</t>
   </si>
 </sst>
 </file>
@@ -455,7 +503,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -506,16 +554,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C41F10-FA45-4501-B58B-AA0A7438019F}">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107:C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +943,9 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -871,7 +954,9 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -898,7 +983,9 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -907,7 +994,9 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -916,7 +1005,9 @@
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -925,7 +1016,9 @@
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -934,7 +1027,9 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -943,7 +1038,9 @@
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -952,7 +1049,9 @@
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -961,7 +1060,9 @@
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -970,7 +1071,9 @@
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -979,7 +1082,9 @@
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -988,7 +1093,9 @@
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -997,7 +1104,9 @@
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1006,7 +1115,9 @@
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1015,7 +1126,9 @@
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1024,7 +1137,9 @@
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1033,7 +1148,9 @@
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1042,7 +1159,9 @@
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1051,7 +1170,7 @@
       <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1060,7 +1179,7 @@
       <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1069,7 +1188,7 @@
       <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1078,7 +1197,7 @@
       <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1087,7 +1206,7 @@
       <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1096,7 +1215,7 @@
       <c r="B28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1105,7 +1224,9 @@
       <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="4" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1114,7 +1235,7 @@
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -1123,7 +1244,7 @@
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1132,7 +1253,7 @@
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1141,7 +1262,7 @@
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1150,7 +1271,7 @@
       <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1159,7 +1280,7 @@
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -1168,7 +1289,9 @@
       <c r="B36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1177,7 +1300,9 @@
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1186,7 +1311,9 @@
       <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -1195,7 +1322,9 @@
       <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="4" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -1204,7 +1333,7 @@
       <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -1213,7 +1342,7 @@
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1222,7 +1351,7 @@
       <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1231,7 +1360,7 @@
       <c r="B43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -1240,7 +1369,7 @@
       <c r="B44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -1249,7 +1378,7 @@
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -1258,7 +1387,7 @@
       <c r="B46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -1267,7 +1396,9 @@
       <c r="B47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="4" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -1276,7 +1407,7 @@
       <c r="B48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -1285,7 +1416,7 @@
       <c r="B49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -1294,7 +1425,7 @@
       <c r="B50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -1303,7 +1434,7 @@
       <c r="B51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1312,7 +1443,7 @@
       <c r="B52" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -1321,7 +1452,7 @@
       <c r="B53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="1"/>
+      <c r="C53" s="5"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -1330,7 +1461,7 @@
       <c r="B54" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="1"/>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -1339,7 +1470,7 @@
       <c r="B55" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="1"/>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -1348,7 +1479,7 @@
       <c r="B56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="1"/>
+      <c r="C56" s="5"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -1357,7 +1488,7 @@
       <c r="B57" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="1"/>
+      <c r="C57" s="5"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -1366,7 +1497,7 @@
       <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="1"/>
+      <c r="C58" s="6"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -1375,7 +1506,9 @@
       <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="1"/>
+      <c r="C59" s="4" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -1384,7 +1517,7 @@
       <c r="B60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="1"/>
+      <c r="C60" s="5"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -1393,7 +1526,7 @@
       <c r="B61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="1"/>
+      <c r="C61" s="5"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -1402,7 +1535,7 @@
       <c r="B62" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="1"/>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -1411,7 +1544,7 @@
       <c r="B63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="1"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -1420,7 +1553,7 @@
       <c r="B64" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="1"/>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -1429,7 +1562,7 @@
       <c r="B65" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="1"/>
+      <c r="C65" s="5"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -1438,7 +1571,7 @@
       <c r="B66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="1"/>
+      <c r="C66" s="5"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -1447,7 +1580,7 @@
       <c r="B67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="1"/>
+      <c r="C67" s="5"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -1456,7 +1589,7 @@
       <c r="B68" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="1"/>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -1465,7 +1598,7 @@
       <c r="B69" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C69" s="1"/>
+      <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -1474,7 +1607,7 @@
       <c r="B70" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C70" s="1"/>
+      <c r="C70" s="6"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -1483,7 +1616,9 @@
       <c r="B71" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="1"/>
+      <c r="C71" s="4" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -1492,7 +1627,7 @@
       <c r="B72" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="1"/>
+      <c r="C72" s="5"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -1501,7 +1636,7 @@
       <c r="B73" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C73" s="1"/>
+      <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -1510,7 +1645,7 @@
       <c r="B74" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="1"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -1519,7 +1654,7 @@
       <c r="B75" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="1"/>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -1528,7 +1663,7 @@
       <c r="B76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -1537,7 +1672,7 @@
       <c r="B77" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="1"/>
+      <c r="C77" s="5"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -1546,7 +1681,7 @@
       <c r="B78" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="1"/>
+      <c r="C78" s="6"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -1555,7 +1690,9 @@
       <c r="B79" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C79" s="1"/>
+      <c r="C79" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -1564,7 +1701,7 @@
       <c r="B80" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C80" s="1"/>
+      <c r="C80" s="5"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -1573,7 +1710,7 @@
       <c r="B81" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C81" s="1"/>
+      <c r="C81" s="5"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -1582,7 +1719,7 @@
       <c r="B82" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C82" s="1"/>
+      <c r="C82" s="5"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -1591,7 +1728,7 @@
       <c r="B83" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C83" s="1"/>
+      <c r="C83" s="5"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -1600,7 +1737,7 @@
       <c r="B84" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="1"/>
+      <c r="C84" s="5"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -1609,7 +1746,7 @@
       <c r="B85" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="1"/>
+      <c r="C85" s="6"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -1618,7 +1755,9 @@
       <c r="B86" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C86" s="1"/>
+      <c r="C86" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -1627,7 +1766,7 @@
       <c r="B87" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C87" s="1"/>
+      <c r="C87" s="5"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -1636,7 +1775,7 @@
       <c r="B88" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="1"/>
+      <c r="C88" s="5"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -1645,7 +1784,7 @@
       <c r="B89" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C89" s="1"/>
+      <c r="C89" s="5"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -1654,7 +1793,7 @@
       <c r="B90" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C90" s="1"/>
+      <c r="C90" s="5"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
@@ -1663,7 +1802,7 @@
       <c r="B91" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C91" s="1"/>
+      <c r="C91" s="5"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -1672,7 +1811,7 @@
       <c r="B92" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="1"/>
+      <c r="C92" s="6"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -1681,7 +1820,9 @@
       <c r="B93" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C93" s="1"/>
+      <c r="C93" s="4" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -1690,7 +1831,7 @@
       <c r="B94" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="1"/>
+      <c r="C94" s="5"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -1699,7 +1840,7 @@
       <c r="B95" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C95" s="1"/>
+      <c r="C95" s="5"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -1708,7 +1849,7 @@
       <c r="B96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="1"/>
+      <c r="C96" s="5"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -1717,7 +1858,7 @@
       <c r="B97" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="1"/>
+      <c r="C97" s="5"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -1726,7 +1867,7 @@
       <c r="B98" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C98" s="1"/>
+      <c r="C98" s="5"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -1735,7 +1876,7 @@
       <c r="B99" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="1"/>
+      <c r="C99" s="6"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -1744,7 +1885,9 @@
       <c r="B100" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C100" s="1"/>
+      <c r="C100" s="4" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -1753,7 +1896,7 @@
       <c r="B101" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C101" s="1"/>
+      <c r="C101" s="5"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -1762,7 +1905,7 @@
       <c r="B102" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C102" s="1"/>
+      <c r="C102" s="5"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
@@ -1771,7 +1914,7 @@
       <c r="B103" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C103" s="1"/>
+      <c r="C103" s="5"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -1780,7 +1923,7 @@
       <c r="B104" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="1"/>
+      <c r="C104" s="5"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
@@ -1789,7 +1932,7 @@
       <c r="B105" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C105" s="1"/>
+      <c r="C105" s="5"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -1798,7 +1941,7 @@
       <c r="B106" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C106" s="1"/>
+      <c r="C106" s="6"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
@@ -1807,7 +1950,9 @@
       <c r="B107" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C107" s="1"/>
+      <c r="C107" s="4" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -1816,7 +1961,7 @@
       <c r="B108" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C108" s="1"/>
+      <c r="C108" s="5"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -1825,7 +1970,7 @@
       <c r="B109" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C109" s="1"/>
+      <c r="C109" s="5"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -1834,7 +1979,7 @@
       <c r="B110" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C110" s="1"/>
+      <c r="C110" s="5"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
@@ -1843,7 +1988,7 @@
       <c r="B111" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C111" s="1"/>
+      <c r="C111" s="5"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -1852,7 +1997,7 @@
       <c r="B112" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C112" s="1"/>
+      <c r="C112" s="5"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
@@ -1861,9 +2006,22 @@
       <c r="B113" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C113" s="1"/>
+      <c r="C113" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C79:C85"/>
+    <mergeCell ref="C86:C92"/>
+    <mergeCell ref="C93:C99"/>
+    <mergeCell ref="C100:C106"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="C47:C58"/>
+    <mergeCell ref="C59:C70"/>
+    <mergeCell ref="C71:C78"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Data Library.xlsx
+++ b/Data Library.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\PersonalDataSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shairra\Documents\GitHub\PersonalDataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6916DFA2-4190-48F4-BD75-DABF5CE8EA5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51306231-9C09-4F2D-9729-1785B4EBF9C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{676481CE-0EF8-428F-AA1A-EFB24E0787AA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="147">
   <si>
     <t>Surname</t>
   </si>
@@ -582,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -597,6 +597,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C41F10-FA45-4501-B58B-AA0A7438019F}">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107:C113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +949,7 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>131</v>
       </c>
     </row>
@@ -954,7 +960,7 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -965,7 +971,9 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="8" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -974,7 +982,9 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="8" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -983,7 +993,7 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -994,7 +1004,7 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1005,7 +1015,7 @@
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1016,7 +1026,7 @@
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1027,7 +1037,7 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1038,7 +1048,7 @@
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1049,7 +1059,7 @@
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1060,7 +1070,7 @@
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="8" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1071,7 +1081,7 @@
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="8" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1082,7 +1092,7 @@
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="8" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1093,7 +1103,7 @@
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="8" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1104,7 +1114,7 @@
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="8" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1115,7 +1125,7 @@
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="8" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1126,7 +1136,7 @@
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1137,7 +1147,7 @@
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="8" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1148,7 +1158,7 @@
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="8" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1289,7 +1299,7 @@
       <c r="B36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="8" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1300,7 +1310,7 @@
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1311,7 +1321,7 @@
       <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2010,17 +2020,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="C47:C58"/>
+    <mergeCell ref="C59:C70"/>
     <mergeCell ref="C79:C85"/>
     <mergeCell ref="C86:C92"/>
     <mergeCell ref="C93:C99"/>
     <mergeCell ref="C100:C106"/>
     <mergeCell ref="C107:C113"/>
-    <mergeCell ref="C22:C28"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="C39:C46"/>
-    <mergeCell ref="C47:C58"/>
-    <mergeCell ref="C59:C70"/>
-    <mergeCell ref="C71:C78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
